--- a/src/vlinder/data/refugee/xlsx/refugee.xlsx
+++ b/src/vlinder/data/refugee/xlsx/refugee.xlsx
@@ -1,31 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tdijk004/Documents/Tooling/tRBS/open source/trbs-refugee-2/trbs-add-refugee/model/data/refugee/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mverdaasdo001/Documents/RBS_open_source_test/trbs/model/data/refugee/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E89EA71-60BF-0F4C-A7C6-D577FEDFF97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA50EFE-1C9B-064D-8066-E4C8BDC69D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="2460" windowWidth="31660" windowHeight="15880" activeTab="5" xr2:uid="{4D223BC5-A265-7B41-9F5C-066E948A074C}"/>
+    <workbookView xWindow="0" yWindow="540" windowWidth="11480" windowHeight="20340" firstSheet="10" activeTab="10" xr2:uid="{4D223BC5-A265-7B41-9F5C-066E948A074C}"/>
   </bookViews>
   <sheets>
     <sheet name="configurations" sheetId="1" r:id="rId1"/>
-    <sheet name="key_outputs" sheetId="2" r:id="rId2"/>
-    <sheet name="decision_makers_options" sheetId="3" r:id="rId3"/>
-    <sheet name="scenarios" sheetId="4" r:id="rId4"/>
-    <sheet name="fixed_inputs" sheetId="5" r:id="rId5"/>
-    <sheet name="dependencies" sheetId="6" r:id="rId6"/>
-    <sheet name="theme_weights" sheetId="7" r:id="rId7"/>
-    <sheet name="key_output_weights" sheetId="8" r:id="rId8"/>
-    <sheet name="scenario_weights" sheetId="9" r:id="rId9"/>
+    <sheet name="case_text_elements" sheetId="10" r:id="rId2"/>
+    <sheet name="key_outputs" sheetId="2" r:id="rId3"/>
+    <sheet name="decision_makers_options" sheetId="3" r:id="rId4"/>
+    <sheet name="scenarios" sheetId="4" r:id="rId5"/>
+    <sheet name="fixed_inputs" sheetId="5" r:id="rId6"/>
+    <sheet name="dependencies" sheetId="6" r:id="rId7"/>
+    <sheet name="theme_weights" sheetId="7" r:id="rId8"/>
+    <sheet name="key_output_weights" sheetId="8" r:id="rId9"/>
+    <sheet name="scenario_weights" sheetId="9" r:id="rId10"/>
+    <sheet name="generic_text_elements" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">dependencies!$A$1:$H$98</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">fixed_inputs!$A$1:$B$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">dependencies!$A$1:$H$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">fixed_inputs!$A$1:$B$46</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="208">
   <si>
     <t>configuration</t>
   </si>
@@ -582,13 +584,103 @@
   </si>
   <si>
     <t>-*</t>
+  </si>
+  <si>
+    <t>Strategic Challenge</t>
+  </si>
+  <si>
+    <t>title_key_outputs</t>
+  </si>
+  <si>
+    <t>Key outputs</t>
+  </si>
+  <si>
+    <t>title_dmo</t>
+  </si>
+  <si>
+    <t>Decision makers options (DMOs)</t>
+  </si>
+  <si>
+    <t>title_scenarios</t>
+  </si>
+  <si>
+    <t>Scenarios</t>
+  </si>
+  <si>
+    <t>Dependency graph</t>
+  </si>
+  <si>
+    <t>intro_key_outputs</t>
+  </si>
+  <si>
+    <t>The outputs upon which the decision makers will base their decision. Key outputs are often referred to as KPIs. Key outputs are grouped into themes.</t>
+  </si>
+  <si>
+    <t>intro_dmo</t>
+  </si>
+  <si>
+    <t>Decision makers options are formulated by assigning a single value to all internal variable inputs. These inputs can be formulated and determined by the decision makers.</t>
+  </si>
+  <si>
+    <t>intro_scenarios</t>
+  </si>
+  <si>
+    <t>Each external variable input can be thought of as a single aspect of external uncertainty affecting the outcome of the decision in scope. A scenario is defined by assigning a single value to all external variable inputs.</t>
+  </si>
+  <si>
+    <t>title_front_page</t>
+  </si>
+  <si>
+    <t>title_strategic_challenge</t>
+  </si>
+  <si>
+    <t>title_dependency_graph</t>
+  </si>
+  <si>
+    <t>title_weighted_graph</t>
+  </si>
+  <si>
+    <t>title_fixed_inputs</t>
+  </si>
+  <si>
+    <t>Fixed inputs</t>
+  </si>
+  <si>
+    <t>intro_fixed_inputs</t>
+  </si>
+  <si>
+    <t>The inputs which only takes one value for all scenarios.</t>
+  </si>
+  <si>
+    <t>intro_dependency_graph</t>
+  </si>
+  <si>
+    <t>intro_weighted_graph</t>
+  </si>
+  <si>
+    <t>strategic_challenge</t>
+  </si>
+  <si>
+    <t>generic_text_element</t>
+  </si>
+  <si>
+    <t>case_text_element</t>
+  </si>
+  <si>
+    <t>How to balance scarce resources among refugees in their region</t>
+  </si>
+  <si>
+    <t>Report of the Refugee case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resulting appreciations of different DMOs for scenario: </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -601,6 +693,21 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -656,7 +763,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -664,7 +771,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1022,7 +1130,214 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82690612-F6E7-CC4A-A524-5770D0407DD2}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF5F3D3F-4AC7-254F-B23E-EA45CF54BAE8}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99730A67-D6AA-424A-A0E7-AA648CF0F49F}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F27D205-AE79-E542-BA48-2D4707481E26}">
   <dimension ref="A1:I8"/>
   <sheetViews>
@@ -1252,7 +1567,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DA06C9-587A-0249-BA81-B2630B23EDC5}">
   <dimension ref="A1:C26"/>
   <sheetViews>
@@ -1560,7 +1875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9376F10E-70E0-5847-AA4E-1F18853CB3E7}">
   <dimension ref="A1:C19"/>
   <sheetViews>
@@ -1788,7 +2103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED761DDB-51CF-394F-9D46-C056F7FA6C46}">
   <dimension ref="A1:B46"/>
   <sheetViews>
@@ -2178,12 +2493,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45498073-CC56-2D41-B5D6-3D03F1233978}">
   <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3086,16 +3401,16 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="5" t="s">
+      <c r="A61" t="s">
         <v>160</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" t="s">
         <v>31</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" t="s">
         <v>53</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3659,7 +3974,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E05F8AE-8DA8-724A-AD7F-0A10B8E741F3}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -3698,7 +4013,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E33D2E0-445B-874F-A88A-006EF8EA7B4B}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -3778,51 +4093,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82690612-F6E7-CC4A-A524-5770D0407DD2}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/vlinder/data/refugee/xlsx/refugee.xlsx
+++ b/src/vlinder/data/refugee/xlsx/refugee.xlsx
@@ -1,31 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tdijk004/Documents/Tooling/tRBS/open source/trbs-refugee-2/trbs-add-refugee/model/data/refugee/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ttami001/Documents/forked_tbrs_opensource/trbs/src/vlinder/data/refugee/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E89EA71-60BF-0F4C-A7C6-D577FEDFF97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5C9004-8666-2D48-AEA8-D6E2D0FCD54D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="2460" windowWidth="31660" windowHeight="15880" activeTab="5" xr2:uid="{4D223BC5-A265-7B41-9F5C-066E948A074C}"/>
+    <workbookView xWindow="860" yWindow="2460" windowWidth="31660" windowHeight="15880" activeTab="2" xr2:uid="{4D223BC5-A265-7B41-9F5C-066E948A074C}"/>
   </bookViews>
   <sheets>
     <sheet name="configurations" sheetId="1" r:id="rId1"/>
-    <sheet name="key_outputs" sheetId="2" r:id="rId2"/>
-    <sheet name="decision_makers_options" sheetId="3" r:id="rId3"/>
-    <sheet name="scenarios" sheetId="4" r:id="rId4"/>
-    <sheet name="fixed_inputs" sheetId="5" r:id="rId5"/>
-    <sheet name="dependencies" sheetId="6" r:id="rId6"/>
-    <sheet name="theme_weights" sheetId="7" r:id="rId7"/>
-    <sheet name="key_output_weights" sheetId="8" r:id="rId8"/>
-    <sheet name="scenario_weights" sheetId="9" r:id="rId9"/>
+    <sheet name="generic_text_elements" sheetId="10" r:id="rId2"/>
+    <sheet name="case_text_elements" sheetId="11" r:id="rId3"/>
+    <sheet name="key_outputs" sheetId="2" r:id="rId4"/>
+    <sheet name="decision_makers_options" sheetId="3" r:id="rId5"/>
+    <sheet name="scenarios" sheetId="4" r:id="rId6"/>
+    <sheet name="fixed_inputs" sheetId="5" r:id="rId7"/>
+    <sheet name="dependencies" sheetId="6" r:id="rId8"/>
+    <sheet name="theme_weights" sheetId="7" r:id="rId9"/>
+    <sheet name="key_output_weights" sheetId="8" r:id="rId10"/>
+    <sheet name="scenario_weights" sheetId="9" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">dependencies!$A$1:$H$98</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">fixed_inputs!$A$1:$B$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">dependencies!$A$1:$H$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">fixed_inputs!$A$1:$B$46</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="204">
   <si>
     <t>configuration</t>
   </si>
@@ -582,13 +584,91 @@
   </si>
   <si>
     <t>-*</t>
+  </si>
+  <si>
+    <t>generic_text_element</t>
+  </si>
+  <si>
+    <t>title_strategic_challenge</t>
+  </si>
+  <si>
+    <t>Strategic Challenge</t>
+  </si>
+  <si>
+    <t>title_key_outputs</t>
+  </si>
+  <si>
+    <t>Key outputs</t>
+  </si>
+  <si>
+    <t>title_dmo</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>title_scenarios</t>
+  </si>
+  <si>
+    <t>Scenarios</t>
+  </si>
+  <si>
+    <t>title_comparison</t>
+  </si>
+  <si>
+    <t>Comparisons of options</t>
+  </si>
+  <si>
+    <t>title_theme_weights</t>
+  </si>
+  <si>
+    <t>Key output and theme weights</t>
+  </si>
+  <si>
+    <t>title_scenario_weights</t>
+  </si>
+  <si>
+    <t>Scenario weights</t>
+  </si>
+  <si>
+    <t>text_strategic_challenge</t>
+  </si>
+  <si>
+    <t>Describing strategic challenge that requires a decision</t>
+  </si>
+  <si>
+    <t>text_key_outputs</t>
+  </si>
+  <si>
+    <t>Which indicators do you use to evaluate the impact of your decision(s)?</t>
+  </si>
+  <si>
+    <t>text_dmo</t>
+  </si>
+  <si>
+    <t>Which options do you have to influence your impact?</t>
+  </si>
+  <si>
+    <t>text_scenarios</t>
+  </si>
+  <si>
+    <t>Which uncertainty do you want to account for?</t>
+  </si>
+  <si>
+    <t>case_text_element</t>
+  </si>
+  <si>
+    <t>strategic_challenge</t>
+  </si>
+  <si>
+    <t>How to source energy?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -601,6 +681,20 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -653,10 +747,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -664,10 +759,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{DA9729B0-9B76-C84C-86B6-0F66A13A4DF8}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -694,9 +794,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -734,7 +834,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -840,7 +940,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -982,7 +1082,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1022,7 +1122,291 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E33D2E0-445B-874F-A88A-006EF8EA7B4B}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82690612-F6E7-CC4A-A524-5770D0407DD2}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0CE72EE-56C9-CF45-9BB4-E3A3014AFA69}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="163.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A4C952-3079-8241-9F47-5217040C7CD4}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F27D205-AE79-E542-BA48-2D4707481E26}">
   <dimension ref="A1:I8"/>
   <sheetViews>
@@ -1252,7 +1636,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DA06C9-587A-0249-BA81-B2630B23EDC5}">
   <dimension ref="A1:C26"/>
   <sheetViews>
@@ -1560,7 +1944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9376F10E-70E0-5847-AA4E-1F18853CB3E7}">
   <dimension ref="A1:C19"/>
   <sheetViews>
@@ -1788,7 +2172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED761DDB-51CF-394F-9D46-C056F7FA6C46}">
   <dimension ref="A1:B46"/>
   <sheetViews>
@@ -2178,11 +2562,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45498073-CC56-2D41-B5D6-3D03F1233978}">
   <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -3086,16 +3470,16 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="5" t="s">
+      <c r="A61" t="s">
         <v>160</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" t="s">
         <v>31</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" t="s">
         <v>53</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3659,7 +4043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E05F8AE-8DA8-724A-AD7F-0A10B8E741F3}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -3696,133 +4080,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E33D2E0-445B-874F-A88A-006EF8EA7B4B}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82690612-F6E7-CC4A-A524-5770D0407DD2}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/vlinder/data/refugee/xlsx/refugee.xlsx
+++ b/src/vlinder/data/refugee/xlsx/refugee.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ttami001/Documents/forked_tbrs_opensource/trbs/src/vlinder/data/refugee/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mverdaasdo001/Documents/tRBS_main/trbs/src/vlinder/data/refugee/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5C9004-8666-2D48-AEA8-D6E2D0FCD54D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80209EC2-47D5-8447-860E-5D2249CEFC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="2460" windowWidth="31660" windowHeight="15880" activeTab="2" xr2:uid="{4D223BC5-A265-7B41-9F5C-066E948A074C}"/>
+    <workbookView xWindow="860" yWindow="2460" windowWidth="31660" windowHeight="15880" activeTab="1" xr2:uid="{4D223BC5-A265-7B41-9F5C-066E948A074C}"/>
   </bookViews>
   <sheets>
     <sheet name="configurations" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="219">
   <si>
     <t>configuration</t>
   </si>
@@ -662,6 +662,51 @@
   </si>
   <si>
     <t>How to source energy?</t>
+  </si>
+  <si>
+    <t>title_decision_makers_options</t>
+  </si>
+  <si>
+    <t>Decision makers options (DMOs)</t>
+  </si>
+  <si>
+    <t>title_fixed_inputs</t>
+  </si>
+  <si>
+    <t>Fixed inputs</t>
+  </si>
+  <si>
+    <t>title_weighted_graph</t>
+  </si>
+  <si>
+    <t>Resulting appreciations of different DMOs for scenario: </t>
+  </si>
+  <si>
+    <t>intro_key_outputs</t>
+  </si>
+  <si>
+    <t>The outputs upon which the decision makers will base their decision. Key outputs are often referred to as KPIs. Key outputs are grouped into themes.</t>
+  </si>
+  <si>
+    <t>intro_decision_makers_options</t>
+  </si>
+  <si>
+    <t>Decision makers options are formulated by assigning a single value to all internal variable inputs. These inputs can be formulated and determined by the decision makers.</t>
+  </si>
+  <si>
+    <t>intro_scenarios</t>
+  </si>
+  <si>
+    <t>Each external variable input can be thought of as a single aspect of external uncertainty affecting the outcome of the decision in scope. A scenario is defined by assigning a single value to all external variable inputs.</t>
+  </si>
+  <si>
+    <t>intro_fixed_inputs</t>
+  </si>
+  <si>
+    <t>The inputs which only takes one value for all scenarios.</t>
+  </si>
+  <si>
+    <t>intro_weighted_graph</t>
   </si>
 </sst>
 </file>
@@ -751,7 +796,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -764,10 +809,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{DA9729B0-9B76-C84C-86B6-0F66A13A4DF8}"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -794,7 +840,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Thema">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -1253,10 +1299,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0CE72EE-56C9-CF45-9BB4-E3A3014AFA69}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1362,6 +1408,68 @@
         <v>200</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B20" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1371,8 +1479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A4C952-3079-8241-9F47-5217040C7CD4}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/vlinder/data/refugee/xlsx/refugee.xlsx
+++ b/src/vlinder/data/refugee/xlsx/refugee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mverdaasdo001/Documents/tRBS_main/trbs/src/vlinder/data/refugee/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80209EC2-47D5-8447-860E-5D2249CEFC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527F298F-CBDB-D34C-A4D1-14585F0EA3D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="2460" windowWidth="31660" windowHeight="15880" activeTab="1" xr2:uid="{4D223BC5-A265-7B41-9F5C-066E948A074C}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="204">
   <si>
     <t>configuration</t>
   </si>
@@ -662,51 +662,6 @@
   </si>
   <si>
     <t>How to source energy?</t>
-  </si>
-  <si>
-    <t>title_decision_makers_options</t>
-  </si>
-  <si>
-    <t>Decision makers options (DMOs)</t>
-  </si>
-  <si>
-    <t>title_fixed_inputs</t>
-  </si>
-  <si>
-    <t>Fixed inputs</t>
-  </si>
-  <si>
-    <t>title_weighted_graph</t>
-  </si>
-  <si>
-    <t>Resulting appreciations of different DMOs for scenario: </t>
-  </si>
-  <si>
-    <t>intro_key_outputs</t>
-  </si>
-  <si>
-    <t>The outputs upon which the decision makers will base their decision. Key outputs are often referred to as KPIs. Key outputs are grouped into themes.</t>
-  </si>
-  <si>
-    <t>intro_decision_makers_options</t>
-  </si>
-  <si>
-    <t>Decision makers options are formulated by assigning a single value to all internal variable inputs. These inputs can be formulated and determined by the decision makers.</t>
-  </si>
-  <si>
-    <t>intro_scenarios</t>
-  </si>
-  <si>
-    <t>Each external variable input can be thought of as a single aspect of external uncertainty affecting the outcome of the decision in scope. A scenario is defined by assigning a single value to all external variable inputs.</t>
-  </si>
-  <si>
-    <t>intro_fixed_inputs</t>
-  </si>
-  <si>
-    <t>The inputs which only takes one value for all scenarios.</t>
-  </si>
-  <si>
-    <t>intro_weighted_graph</t>
   </si>
 </sst>
 </file>
@@ -1302,7 +1257,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1409,65 +1364,35 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>205</v>
-      </c>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>207</v>
-      </c>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>209</v>
-      </c>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>211</v>
-      </c>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>213</v>
-      </c>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>215</v>
-      </c>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>217</v>
-      </c>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>218</v>
-      </c>
+      <c r="A20" s="8"/>
       <c r="B20" s="8"/>
     </row>
   </sheetData>

--- a/src/vlinder/data/refugee/xlsx/refugee.xlsx
+++ b/src/vlinder/data/refugee/xlsx/refugee.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ttami001/Documents/forked_tbrs_opensource/trbs/src/vlinder/data/refugee/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5C9004-8666-2D48-AEA8-D6E2D0FCD54D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1FCBF3-1EAE-0543-B25E-9A26D4D02AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="2460" windowWidth="31660" windowHeight="15880" activeTab="2" xr2:uid="{4D223BC5-A265-7B41-9F5C-066E948A074C}"/>
+    <workbookView xWindow="1440" yWindow="-21280" windowWidth="31660" windowHeight="15880" xr2:uid="{4D223BC5-A265-7B41-9F5C-066E948A074C}"/>
   </bookViews>
   <sheets>
     <sheet name="configurations" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="241">
   <si>
     <t>configuration</t>
   </si>
@@ -592,9 +592,6 @@
     <t>title_strategic_challenge</t>
   </si>
   <si>
-    <t>Strategic Challenge</t>
-  </si>
-  <si>
     <t>title_key_outputs</t>
   </si>
   <si>
@@ -613,62 +610,176 @@
     <t>Scenarios</t>
   </si>
   <si>
-    <t>title_comparison</t>
-  </si>
-  <si>
-    <t>Comparisons of options</t>
-  </si>
-  <si>
-    <t>title_theme_weights</t>
-  </si>
-  <si>
-    <t>Key output and theme weights</t>
-  </si>
-  <si>
-    <t>title_scenario_weights</t>
-  </si>
-  <si>
-    <t>Scenario weights</t>
-  </si>
-  <si>
     <t>text_strategic_challenge</t>
   </si>
   <si>
-    <t>Describing strategic challenge that requires a decision</t>
-  </si>
-  <si>
     <t>text_key_outputs</t>
   </si>
   <si>
-    <t>Which indicators do you use to evaluate the impact of your decision(s)?</t>
-  </si>
-  <si>
     <t>text_dmo</t>
   </si>
   <si>
-    <t>Which options do you have to influence your impact?</t>
-  </si>
-  <si>
     <t>text_scenarios</t>
   </si>
   <si>
-    <t>Which uncertainty do you want to account for?</t>
-  </si>
-  <si>
     <t>case_text_element</t>
   </si>
   <si>
     <t>strategic_challenge</t>
   </si>
   <si>
-    <t>How to source energy?</t>
+    <t>Strategic challenge</t>
+  </si>
+  <si>
+    <t>title_comparison_dmo</t>
+  </si>
+  <si>
+    <t>Strategic priorities</t>
+  </si>
+  <si>
+    <t>title_comparison_scenario</t>
+  </si>
+  <si>
+    <t>Risk appetite</t>
+  </si>
+  <si>
+    <t>title_fixed_inputs</t>
+  </si>
+  <si>
+    <t>Fixed inputs</t>
+  </si>
+  <si>
+    <t>title_dependency_graph</t>
+  </si>
+  <si>
+    <t>Dependency graph</t>
+  </si>
+  <si>
+    <t>title_weighted_graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resulting appreciations of different DMOs for scenario: </t>
+  </si>
+  <si>
+    <t>The strategic challenge that requires a decision</t>
+  </si>
+  <si>
+    <t>The indicators used to evaluate the impact of your decision</t>
+  </si>
+  <si>
+    <t>The options you have to influence your impact</t>
+  </si>
+  <si>
+    <t>The uncertainty you want to account for</t>
+  </si>
+  <si>
+    <t>text_comparison_dmo</t>
+  </si>
+  <si>
+    <t>Evaluate options by assessing strategic priorities</t>
+  </si>
+  <si>
+    <t>text_comparison_scenario</t>
+  </si>
+  <si>
+    <t>Evaluate options by assessing risk appetite</t>
+  </si>
+  <si>
+    <t>intro_key_outputs</t>
+  </si>
+  <si>
+    <t>The outputs upon which the decision makers will base their decision. Key outputs are often referred to as KPIs. Key outputs are grouped into themes.</t>
+  </si>
+  <si>
+    <t>intro_decision_makers_options</t>
+  </si>
+  <si>
+    <t>Decision makers options are formulated by assigning a single value to all internal variable inputs. These inputs can be formulated and determined by the decision makers.</t>
+  </si>
+  <si>
+    <t>intro_scenarios</t>
+  </si>
+  <si>
+    <t>Each external variable input can be thought of as a single aspect of external uncertainty affecting the outcome of the decision in scope. A scenario is defined by assigning a single value to all external variable inputs.</t>
+  </si>
+  <si>
+    <t>intro_fixed_inputs</t>
+  </si>
+  <si>
+    <t>The inputs which only takes one value for all scenarios.</t>
+  </si>
+  <si>
+    <t>intro_dependency_graph</t>
+  </si>
+  <si>
+    <t>intro_weighted_graph</t>
+  </si>
+  <si>
+    <t>header_theme</t>
+  </si>
+  <si>
+    <t>Theme</t>
+  </si>
+  <si>
+    <t>header_key_outputs</t>
+  </si>
+  <si>
+    <t>Key output</t>
+  </si>
+  <si>
+    <t>graph_title_dmo</t>
+  </si>
+  <si>
+    <t>Appreciations per option for scenario</t>
+  </si>
+  <si>
+    <t>graph_y_label_dmo</t>
+  </si>
+  <si>
+    <t>Appreciation</t>
+  </si>
+  <si>
+    <t>graph_text_dmo</t>
+  </si>
+  <si>
+    <t>The chart below shows the weighted appreciations per option, where key outputs are grouped into themes. The used theme weights are displayed in the pie chart on the right, showing the relative weights of all key outputs belonging to that theme. Use the dropdown menu to navigate through the various scenarios.</t>
+  </si>
+  <si>
+    <t>table_text_dmo</t>
+  </si>
+  <si>
+    <t>The table below shows the key output values per option, based on the selected scenario. The option with the highest weighted appreciation is highlighted.</t>
+  </si>
+  <si>
+    <t>graph_text_scenarios</t>
+  </si>
+  <si>
+    <t>The chart below shows the weighted appreciations per option, grouped into scenarios. The used scenario weights are displayed in the pie chart on the right.</t>
+  </si>
+  <si>
+    <t>graph_title_scenarios</t>
+  </si>
+  <si>
+    <t>Appreciations per scenario</t>
+  </si>
+  <si>
+    <t>graph_y_label_scenarios</t>
+  </si>
+  <si>
+    <t>The International Organisation for Migration (2016) counted 1,011,712 migrants and refugees that crossed the southern border of the European Union in 2015, which some have dubbed a ‘refugee crisis’. A distinction can be made between refugees and economic migrants. Economic migrants are, contrary to refugees, not forced to leave their country because of war or another humanitarian crisis, but move from their own country to a new country in order to find work or have a better standard of living. Europe currently has to cope with both. A (temporary) residence permit that grants asylum is generally only awarded to refugees. This permit is a ticket for integration in society, for work and education. The strategic challenge we face is determining how to accommodate refugees effectively.</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>EN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -692,6 +803,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -751,7 +869,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -764,6 +882,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1090,10 +1213,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{323C0127-B98F-8F4A-8B9E-DB2076867E31}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1115,6 +1238,14 @@
       </c>
       <c r="B2">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -1253,10 +1384,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0CE72EE-56C9-CF45-9BB4-E3A3014AFA69}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection sqref="A1:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1279,87 +1410,235 @@
         <v>179</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>192</v>
+      <c r="A8" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>194</v>
+      <c r="A9" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>196</v>
+      <c r="A10" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -1371,31 +1650,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A4C952-3079-8241-9F47-5217040C7CD4}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63" style="6" customWidth="1"/>
     <col min="3" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>203</v>
+        <v>191</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
